--- a/data-raw/crops/Crop_temperature_table_summary_02052020.xlsx
+++ b/data-raw/crops/Crop_temperature_table_summary_02052020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10503"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/ISIMIPData/data-raw/crops/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{350B2AF4-2801-ED41-8AB4-7B23FE78AA85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB002C8-F904-B94A-B20F-EE7D904997E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40120" yWindow="15180" windowWidth="29880" windowHeight="18600" xr2:uid="{B4D76984-901C-4101-9D8A-9C2466AD7510}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="98">
   <si>
     <t>Cotton</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Sweet.Potatoes</t>
+  </si>
+  <si>
+    <t>or if 2 and 15, just to fill in some blanks</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,7 +551,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9915093D-623D-466F-AD80-929A98EAD566}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -973,7 +975,7 @@
       <c r="R1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="55" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1003,7 +1005,7 @@
       <c r="I2" s="19">
         <v>1</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="51">
         <v>30</v>
       </c>
       <c r="K2" s="18"/>
@@ -1049,7 +1051,7 @@
       <c r="I3" s="25">
         <v>1</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="52">
         <v>34</v>
       </c>
       <c r="K3" s="24"/>
@@ -1058,8 +1060,12 @@
       <c r="N3" s="25">
         <v>1</v>
       </c>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
+      <c r="R3" s="56">
+        <v>2</v>
+      </c>
+      <c r="S3" s="56">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
@@ -1085,7 +1091,7 @@
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="J4" s="54">
+      <c r="J4" s="53">
         <v>50</v>
       </c>
       <c r="K4" s="31"/>
@@ -1098,10 +1104,10 @@
       <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="49">
+      <c r="R4" s="48">
         <v>10</v>
       </c>
-      <c r="S4" s="49">
+      <c r="S4" s="48">
         <v>20</v>
       </c>
     </row>
@@ -1131,7 +1137,7 @@
       <c r="I5" s="25">
         <v>1</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="52">
         <v>35</v>
       </c>
       <c r="K5" s="24"/>
@@ -1143,10 +1149,10 @@
       <c r="Q5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="49">
+      <c r="R5" s="48">
         <v>4</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="48">
         <v>10</v>
       </c>
     </row>
@@ -1176,7 +1182,7 @@
       <c r="I6" s="32">
         <v>1</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="53">
         <v>35</v>
       </c>
       <c r="K6" s="31"/>
@@ -1189,10 +1195,10 @@
       <c r="Q6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="49">
+      <c r="R6" s="48">
         <v>15</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="49">
         <v>33</v>
       </c>
     </row>
@@ -1222,7 +1228,7 @@
       <c r="I7" s="25">
         <v>1</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="52">
         <v>36</v>
       </c>
       <c r="K7" s="24"/>
@@ -1231,8 +1237,12 @@
       <c r="N7" s="25">
         <v>1</v>
       </c>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
+      <c r="R7" s="56">
+        <v>2</v>
+      </c>
+      <c r="S7" s="56">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
@@ -1262,7 +1272,7 @@
       <c r="I8" s="32">
         <v>2</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="53">
         <v>37.5</v>
       </c>
       <c r="K8" s="31">
@@ -1281,10 +1291,10 @@
       <c r="Q8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="49">
+      <c r="R8" s="48">
         <v>8</v>
       </c>
-      <c r="S8" s="50">
+      <c r="S8" s="49">
         <v>30.5</v>
       </c>
     </row>
@@ -1314,7 +1324,7 @@
       <c r="I9" s="25">
         <v>1</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="52">
         <v>35</v>
       </c>
       <c r="K9" s="24"/>
@@ -1323,8 +1333,12 @@
       <c r="N9" s="25">
         <v>1</v>
       </c>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
+      <c r="R9" s="56">
+        <v>2</v>
+      </c>
+      <c r="S9" s="56">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
@@ -1354,7 +1368,7 @@
       <c r="I10" s="25">
         <v>4</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="52">
         <v>37</v>
       </c>
       <c r="K10" s="24">
@@ -1372,10 +1386,10 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="50">
         <v>10</v>
       </c>
-      <c r="S10" s="50">
+      <c r="S10" s="49">
         <v>28.9</v>
       </c>
     </row>
@@ -1405,7 +1419,7 @@
       <c r="I11" s="25">
         <v>1</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="52">
         <v>40</v>
       </c>
       <c r="K11" s="24">
@@ -1423,10 +1437,10 @@
       <c r="Q11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R11" s="49">
+      <c r="R11" s="48">
         <v>12</v>
       </c>
-      <c r="S11" s="51">
+      <c r="S11" s="50">
         <v>25</v>
       </c>
     </row>
@@ -1454,7 +1468,7 @@
       <c r="I12" s="32">
         <v>1</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="53">
         <v>35</v>
       </c>
       <c r="K12" s="31"/>
@@ -1464,8 +1478,12 @@
         <v>1</v>
       </c>
       <c r="O12" s="27"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
+      <c r="R12" s="56">
+        <v>2</v>
+      </c>
+      <c r="S12" s="56">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
@@ -1491,7 +1509,7 @@
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="53">
+      <c r="J13" s="52">
         <v>30</v>
       </c>
       <c r="K13" s="24"/>
@@ -1504,10 +1522,10 @@
       <c r="Q13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R13" s="49">
+      <c r="R13" s="48">
         <v>5</v>
       </c>
-      <c r="S13" s="51">
+      <c r="S13" s="50">
         <v>16</v>
       </c>
     </row>
@@ -1537,7 +1555,7 @@
       <c r="I14" s="25">
         <v>1</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="52">
         <v>36</v>
       </c>
       <c r="K14" s="24"/>
@@ -1546,8 +1564,12 @@
       <c r="N14" s="25">
         <v>1</v>
       </c>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
+      <c r="R14" s="56">
+        <v>2</v>
+      </c>
+      <c r="S14" s="56">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
@@ -1575,7 +1597,7 @@
       <c r="I15" s="32">
         <v>6</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="53">
         <v>31</v>
       </c>
       <c r="K15" s="31"/>
@@ -1592,10 +1614,10 @@
       <c r="Q15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="49">
+      <c r="R15" s="48">
         <v>7</v>
       </c>
-      <c r="S15" s="51">
+      <c r="S15" s="50">
         <v>15</v>
       </c>
     </row>
@@ -1625,7 +1647,7 @@
       <c r="I16" s="32">
         <v>1</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="53">
         <v>35</v>
       </c>
       <c r="K16" s="31"/>
@@ -1639,10 +1661,10 @@
       <c r="Q16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="49">
+      <c r="R16" s="48">
         <v>5</v>
       </c>
-      <c r="S16" s="51">
+      <c r="S16" s="50">
         <v>14</v>
       </c>
     </row>
@@ -1674,7 +1696,7 @@
       <c r="I17" s="25">
         <v>10</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="52">
         <v>36.949999999999996</v>
       </c>
       <c r="K17" s="24">
@@ -1693,10 +1715,10 @@
       <c r="Q17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="50">
+      <c r="R17" s="49">
         <v>10</v>
       </c>
-      <c r="S17" s="50">
+      <c r="S17" s="49">
         <v>29.6</v>
       </c>
     </row>
@@ -1724,7 +1746,7 @@
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="53">
+      <c r="J18" s="52">
         <v>31</v>
       </c>
       <c r="K18" s="24"/>
@@ -1738,10 +1760,10 @@
       <c r="Q18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="49">
+      <c r="R18" s="48">
         <v>3</v>
       </c>
-      <c r="S18" s="51">
+      <c r="S18" s="50">
         <v>15</v>
       </c>
     </row>
@@ -1773,7 +1795,7 @@
       <c r="I19" s="25">
         <v>2</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="52">
         <v>37.33</v>
       </c>
       <c r="K19" s="24">
@@ -1792,10 +1814,10 @@
       <c r="Q19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R19" s="49">
+      <c r="R19" s="48">
         <v>8</v>
       </c>
-      <c r="S19" s="50">
+      <c r="S19" s="49">
         <v>32.5</v>
       </c>
     </row>
@@ -1827,7 +1849,7 @@
       <c r="I20" s="32">
         <v>2</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="53">
         <v>39.5</v>
       </c>
       <c r="K20" s="31">
@@ -1847,10 +1869,10 @@
       <c r="Q20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R20" s="49">
+      <c r="R20" s="48">
         <v>10</v>
       </c>
-      <c r="S20" s="51">
+      <c r="S20" s="50">
         <v>20</v>
       </c>
     </row>
@@ -1878,7 +1900,7 @@
       </c>
       <c r="H21" s="31"/>
       <c r="I21" s="32"/>
-      <c r="J21" s="54">
+      <c r="J21" s="53">
         <v>35</v>
       </c>
       <c r="K21" s="31"/>
@@ -1892,10 +1914,10 @@
       <c r="Q21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R21" s="49">
+      <c r="R21" s="48">
         <v>4</v>
       </c>
-      <c r="S21" s="51">
+      <c r="S21" s="50">
         <v>15</v>
       </c>
     </row>
@@ -1925,7 +1947,7 @@
       <c r="I22" s="32">
         <v>1</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="53">
         <v>35</v>
       </c>
       <c r="K22" s="31"/>
@@ -1939,10 +1961,10 @@
       <c r="Q22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="49">
+      <c r="R22" s="48">
         <v>5</v>
       </c>
-      <c r="S22" s="49">
+      <c r="S22" s="48">
         <v>17</v>
       </c>
     </row>
@@ -1972,7 +1994,7 @@
       <c r="I23" s="32">
         <v>5</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="53">
         <v>30</v>
       </c>
       <c r="K23" s="31"/>
@@ -1984,10 +2006,10 @@
       <c r="Q23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="49">
+      <c r="R23" s="48">
         <v>10</v>
       </c>
-      <c r="S23" s="49">
+      <c r="S23" s="48">
         <v>18</v>
       </c>
     </row>
@@ -2015,7 +2037,7 @@
       <c r="I24" s="32">
         <v>1</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="53">
         <v>30</v>
       </c>
       <c r="K24" s="31"/>
@@ -2026,8 +2048,12 @@
       </c>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
+      <c r="R24" s="56">
+        <v>2</v>
+      </c>
+      <c r="S24" s="56">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="2" t="s">
@@ -2057,7 +2083,7 @@
       <c r="I25" s="37">
         <v>4</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="54">
         <v>31.44</v>
       </c>
       <c r="K25" s="36">
@@ -2077,10 +2103,10 @@
       <c r="Q25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R25" s="57">
+      <c r="R25" s="56">
         <v>2.6</v>
       </c>
-      <c r="S25" s="57">
+      <c r="S25" s="56">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -2110,7 +2136,7 @@
       <c r="I26" s="32">
         <v>1</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J26" s="53">
         <v>42</v>
       </c>
       <c r="K26" s="31"/>
@@ -2180,6 +2206,11 @@
         <v>85</v>
       </c>
     </row>
+    <row r="30" spans="1:21">
+      <c r="U30" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{D42A7771-8A26-A74C-97DB-6A1EDB585036}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O15">
